--- a/_Out/NFDataCfg/Excel_Ini/Task.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/Task.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="27518" windowHeight="17543"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -135,17 +135,20 @@
   <si>
     <t>Upload</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -153,7 +156,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -166,7 +169,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -238,7 +241,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -511,27 +514,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.265625" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="21.46484375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="8" width="12.6328125" customWidth="1"/>
+    <col min="7" max="8" width="12.59765625" customWidth="1"/>
     <col min="9" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -595,7 +598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -627,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -659,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -691,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -723,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="13.5">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -755,174 +758,207 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="13.5">
       <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="13.5">
+      <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>100</v>
-      </c>
-      <c r="H10">
-        <v>110</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H12">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="J12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>300</v>
+      </c>
+      <c r="H13">
+        <v>330</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>